--- a/Results/rmse_compare_results.xlsx
+++ b/Results/rmse_compare_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>automl</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>xgboost</t>
+  </si>
+  <si>
+    <t>prophet</t>
   </si>
   <si>
     <t>#1</t>
@@ -419,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,10 +444,13 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>0.0804</v>
@@ -461,10 +467,13 @@
       <c r="F2">
         <v>0.1461</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>0.0591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0.0887</v>
@@ -481,10 +490,13 @@
       <c r="F3">
         <v>0.09950000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0.1392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0.1363</v>
@@ -501,10 +513,13 @@
       <c r="F4">
         <v>0.0313</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>0.1874</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0.0466</v>
@@ -521,10 +536,13 @@
       <c r="F5">
         <v>0.0607</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0.0839</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>0.0772</v>
@@ -541,10 +559,13 @@
       <c r="F6">
         <v>0.032</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>0.1877</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>0.1552</v>
@@ -561,10 +582,13 @@
       <c r="F7">
         <v>0.0166</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>0.1795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>0.139</v>
@@ -581,10 +605,13 @@
       <c r="F8">
         <v>0.06419999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>0.0492</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>0.0668</v>
@@ -601,10 +628,13 @@
       <c r="F9">
         <v>0.1414</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>0.0946</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>0.0806</v>
@@ -621,10 +651,13 @@
       <c r="F10">
         <v>0.0635</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>0.09379999999999999</v>
@@ -641,10 +674,13 @@
       <c r="F11">
         <v>0.0394</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>0.0586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>0.0374</v>
@@ -660,6 +696,9 @@
       </c>
       <c r="F12">
         <v>0.0254</v>
+      </c>
+      <c r="G12">
+        <v>0.0338</v>
       </c>
     </row>
   </sheetData>
